--- a/Модели Excel/New Logic_Var_M_Check.xlsx
+++ b/Модели Excel/New Logic_Var_M_Check.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMP\KTH\!Work2\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\magistr\Модели Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -75,7 +75,7 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -267,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[&gt;0.05]0.0;[=0]\-;\^"/>
     <numFmt numFmtId="165" formatCode="0.0000000_ ;\-0.0000000\ "/>
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -653,7 +653,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C574-401F-A159-539403B5C3B0}"/>
             </c:ext>
@@ -762,7 +762,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C574-401F-A159-539403B5C3B0}"/>
             </c:ext>
@@ -777,11 +777,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="809764607"/>
-        <c:axId val="809764191"/>
+        <c:axId val="-689992912"/>
+        <c:axId val="-689999440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="809764607"/>
+        <c:axId val="-689992912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +823,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809764191"/>
+        <c:crossAx val="-689999440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -831,7 +831,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="809764191"/>
+        <c:axId val="-689999440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +882,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809764607"/>
+        <c:crossAx val="-689992912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1113,7 +1113,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6534-435B-9FFA-36F843D92D27}"/>
             </c:ext>
@@ -1309,7 +1309,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6534-435B-9FFA-36F843D92D27}"/>
             </c:ext>
@@ -1324,11 +1324,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948336288"/>
-        <c:axId val="948339616"/>
+        <c:axId val="-689977136"/>
+        <c:axId val="-689984752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948336288"/>
+        <c:axId val="-689977136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1370,7 +1370,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948339616"/>
+        <c:crossAx val="-689984752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1378,7 +1378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948339616"/>
+        <c:axId val="-689984752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,7 +1429,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948336288"/>
+        <c:crossAx val="-689977136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1511,7 +1511,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1525,6 +1525,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1660,7 +1661,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D1E8-487B-9001-2D4B6864EE10}"/>
             </c:ext>
@@ -1856,7 +1857,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D1E8-487B-9001-2D4B6864EE10}"/>
             </c:ext>
@@ -1871,11 +1872,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948301760"/>
-        <c:axId val="948312160"/>
+        <c:axId val="-689974416"/>
+        <c:axId val="-690003792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948301760"/>
+        <c:axId val="-689974416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,7 +1918,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948312160"/>
+        <c:crossAx val="-690003792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1925,7 +1926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948312160"/>
+        <c:axId val="-690003792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,7 +1977,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948301760"/>
+        <c:crossAx val="-689974416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1990,6 +1991,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2057,7 +2059,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2071,6 +2073,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2206,7 +2209,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D68E-4F57-AC10-9133BF734840}"/>
             </c:ext>
@@ -2402,7 +2405,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D68E-4F57-AC10-9133BF734840}"/>
             </c:ext>
@@ -2417,11 +2420,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948326304"/>
-        <c:axId val="948321728"/>
+        <c:axId val="-689984208"/>
+        <c:axId val="-689976048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948326304"/>
+        <c:axId val="-689984208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,7 +2466,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948321728"/>
+        <c:crossAx val="-689976048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2471,7 +2474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948321728"/>
+        <c:axId val="-689976048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2522,7 +2525,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948326304"/>
+        <c:crossAx val="-689984208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2536,6 +2539,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2603,7 +2607,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2741,7 +2745,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8C7B-4C2F-B6F4-6DE470CE43E9}"/>
             </c:ext>
@@ -2925,7 +2929,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8C7B-4C2F-B6F4-6DE470CE43E9}"/>
             </c:ext>
@@ -2940,11 +2944,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948279296"/>
-        <c:axId val="948297600"/>
+        <c:axId val="-689987472"/>
+        <c:axId val="-689983664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948279296"/>
+        <c:axId val="-689987472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +2990,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948297600"/>
+        <c:crossAx val="-689983664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2994,7 +2998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948297600"/>
+        <c:axId val="-689983664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,7 +3049,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948279296"/>
+        <c:crossAx val="-689987472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3127,7 +3131,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3284,7 +3288,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6E13-4C23-A96B-1E7878E3E490}"/>
             </c:ext>
@@ -3480,7 +3484,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6E13-4C23-A96B-1E7878E3E490}"/>
             </c:ext>
@@ -3495,11 +3499,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="986011632"/>
-        <c:axId val="985998320"/>
+        <c:axId val="-689982576"/>
+        <c:axId val="-689986928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="986011632"/>
+        <c:axId val="-689982576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3541,7 +3545,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="985998320"/>
+        <c:crossAx val="-689986928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3549,7 +3553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="985998320"/>
+        <c:axId val="-689986928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3600,7 +3604,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986011632"/>
+        <c:crossAx val="-689982576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3682,7 +3686,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3856,7 +3860,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-42C9-42E5-813D-F28176FC79F7}"/>
             </c:ext>
@@ -3962,7 +3966,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-42C9-42E5-813D-F28176FC79F7}"/>
             </c:ext>
@@ -3977,11 +3981,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948287200"/>
-        <c:axId val="948275552"/>
+        <c:axId val="-689970608"/>
+        <c:axId val="-689998896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948287200"/>
+        <c:axId val="-689970608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4023,7 +4027,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948275552"/>
+        <c:crossAx val="-689998896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4031,7 +4035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948275552"/>
+        <c:axId val="-689998896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,7 +4086,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948287200"/>
+        <c:crossAx val="-689970608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4163,7 +4167,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4312,7 +4316,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-085F-495E-B0B0-322852D8C181}"/>
             </c:ext>
@@ -4508,7 +4512,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-085F-495E-B0B0-322852D8C181}"/>
             </c:ext>
@@ -4523,11 +4527,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948296768"/>
-        <c:axId val="948275136"/>
+        <c:axId val="-689982032"/>
+        <c:axId val="-689981488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948296768"/>
+        <c:axId val="-689982032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4569,7 +4573,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948275136"/>
+        <c:crossAx val="-689981488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4577,7 +4581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948275136"/>
+        <c:axId val="-689981488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4628,7 +4632,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948296768"/>
+        <c:crossAx val="-689982032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4709,7 +4713,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4858,7 +4862,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-86A3-4BD4-B6FE-439D9D9A37BE}"/>
             </c:ext>
@@ -4964,7 +4968,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-86A3-4BD4-B6FE-439D9D9A37BE}"/>
             </c:ext>
@@ -4979,11 +4983,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="986004560"/>
-        <c:axId val="986006640"/>
+        <c:axId val="-689975504"/>
+        <c:axId val="-689974960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="986004560"/>
+        <c:axId val="-689975504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5025,7 +5029,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986006640"/>
+        <c:crossAx val="-689974960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5033,7 +5037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="986006640"/>
+        <c:axId val="-689974960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5084,7 +5088,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986004560"/>
+        <c:crossAx val="-689975504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5165,7 +5169,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5315,7 +5319,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6C53-4ADA-B685-010F75CD9B50}"/>
             </c:ext>
@@ -5421,7 +5425,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6C53-4ADA-B685-010F75CD9B50}"/>
             </c:ext>
@@ -5436,11 +5440,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="875861504"/>
-        <c:axId val="875870240"/>
+        <c:axId val="-689973872"/>
+        <c:axId val="-689973328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="875861504"/>
+        <c:axId val="-689973872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5482,7 +5486,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875870240"/>
+        <c:crossAx val="-689973328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5490,7 +5494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="875870240"/>
+        <c:axId val="-689973328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5541,7 +5545,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875861504"/>
+        <c:crossAx val="-689973872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5623,7 +5627,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5780,7 +5784,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE5F-4D7A-9325-3DD9837EF9FD}"/>
             </c:ext>
@@ -5886,7 +5890,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EE5F-4D7A-9325-3DD9837EF9FD}"/>
             </c:ext>
@@ -5901,11 +5905,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948278464"/>
-        <c:axId val="948276800"/>
+        <c:axId val="-689972240"/>
+        <c:axId val="-689970064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948278464"/>
+        <c:axId val="-689972240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5947,7 +5951,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948276800"/>
+        <c:crossAx val="-689970064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5955,7 +5959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948276800"/>
+        <c:axId val="-689970064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6006,7 +6010,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948278464"/>
+        <c:crossAx val="-689972240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6088,7 +6092,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6248,7 +6252,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B61-4D4A-AC92-0F13B2522B63}"/>
             </c:ext>
@@ -6357,7 +6361,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2B61-4D4A-AC92-0F13B2522B63}"/>
             </c:ext>
@@ -6372,11 +6376,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="613731967"/>
-        <c:axId val="613732383"/>
+        <c:axId val="-689985840"/>
+        <c:axId val="-689978224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="613731967"/>
+        <c:axId val="-689985840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6418,7 +6422,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613732383"/>
+        <c:crossAx val="-689978224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6426,7 +6430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="613732383"/>
+        <c:axId val="-689978224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6477,7 +6481,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613731967"/>
+        <c:crossAx val="-689985840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6558,7 +6562,7 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6708,7 +6712,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6EF1-4F39-81DD-56B4906B8BE7}"/>
             </c:ext>
@@ -6814,7 +6818,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6EF1-4F39-81DD-56B4906B8BE7}"/>
             </c:ext>
@@ -6829,11 +6833,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948283456"/>
-        <c:axId val="948297600"/>
+        <c:axId val="-690001616"/>
+        <c:axId val="-690003248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948283456"/>
+        <c:axId val="-690001616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6875,7 +6879,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948297600"/>
+        <c:crossAx val="-690003248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6883,7 +6887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948297600"/>
+        <c:axId val="-690003248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6934,7 +6938,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948283456"/>
+        <c:crossAx val="-690001616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7016,7 +7020,7 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7030,6 +7034,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7165,7 +7170,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7C03-4799-9415-128D135F1E11}"/>
             </c:ext>
@@ -7271,7 +7276,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7C03-4799-9415-128D135F1E11}"/>
             </c:ext>
@@ -7286,11 +7291,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="985997904"/>
-        <c:axId val="986004976"/>
+        <c:axId val="-689969520"/>
+        <c:axId val="-689998352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="985997904"/>
+        <c:axId val="-689969520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7332,7 +7337,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986004976"/>
+        <c:crossAx val="-689998352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7340,7 +7345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="986004976"/>
+        <c:axId val="-689998352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7391,7 +7396,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="985997904"/>
+        <c:crossAx val="-689969520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7405,6 +7410,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7472,7 +7478,7 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7512,6 +7518,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7647,7 +7654,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BB22-4E5F-8020-017F0C4E1BAD}"/>
             </c:ext>
@@ -7753,7 +7760,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BB22-4E5F-8020-017F0C4E1BAD}"/>
             </c:ext>
@@ -7768,11 +7775,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948308000"/>
-        <c:axId val="948317984"/>
+        <c:axId val="-689996720"/>
+        <c:axId val="-689997808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948308000"/>
+        <c:axId val="-689996720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7814,7 +7821,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948317984"/>
+        <c:crossAx val="-689997808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7822,7 +7829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948317984"/>
+        <c:axId val="-689997808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7873,7 +7880,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948308000"/>
+        <c:crossAx val="-689996720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7887,6 +7894,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7954,7 +7962,7 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8103,7 +8111,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1D0F-479E-A4BB-1DBE80C074D9}"/>
             </c:ext>
@@ -8299,7 +8307,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1D0F-479E-A4BB-1DBE80C074D9}"/>
             </c:ext>
@@ -8314,11 +8322,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="766601680"/>
-        <c:axId val="875892240"/>
+        <c:axId val="-689996176"/>
+        <c:axId val="-689995632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="766601680"/>
+        <c:axId val="-689996176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8360,7 +8368,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875892240"/>
+        <c:crossAx val="-689995632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8368,7 +8376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="875892240"/>
+        <c:axId val="-689995632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8419,7 +8427,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="766601680"/>
+        <c:crossAx val="-689996176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8500,7 +8508,7 @@
 </file>
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8650,7 +8658,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E763-4D91-92BA-39A71A765C23}"/>
             </c:ext>
@@ -8756,7 +8764,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E763-4D91-92BA-39A71A765C23}"/>
             </c:ext>
@@ -8771,11 +8779,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="657888208"/>
-        <c:axId val="657884048"/>
+        <c:axId val="-689995088"/>
+        <c:axId val="-689993456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="657888208"/>
+        <c:axId val="-689995088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8817,7 +8825,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657884048"/>
+        <c:crossAx val="-689993456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8825,7 +8833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="657884048"/>
+        <c:axId val="-689993456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8876,7 +8884,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657888208"/>
+        <c:crossAx val="-689995088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8958,7 +8966,7 @@
 </file>
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9220,7 +9228,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1565-4FA7-89E1-A125775BBA82}"/>
             </c:ext>
@@ -9413,7 +9421,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1565-4FA7-89E1-A125775BBA82}"/>
             </c:ext>
@@ -9428,11 +9436,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948287200"/>
-        <c:axId val="948275552"/>
+        <c:axId val="-1618996384"/>
+        <c:axId val="-636492128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948287200"/>
+        <c:axId val="-1618996384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9475,7 +9483,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948275552"/>
+        <c:crossAx val="-636492128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9483,7 +9491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948275552"/>
+        <c:axId val="-636492128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9534,7 +9542,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948287200"/>
+        <c:crossAx val="-1618996384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9616,7 +9624,7 @@
 </file>
 
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9879,7 +9887,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0035-4991-9308-BCE958A9A136}"/>
             </c:ext>
@@ -10072,7 +10080,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0035-4991-9308-BCE958A9A136}"/>
             </c:ext>
@@ -10087,11 +10095,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="720194303"/>
-        <c:axId val="720195551"/>
+        <c:axId val="-636467648"/>
+        <c:axId val="-636498656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="720194303"/>
+        <c:axId val="-636467648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10134,7 +10142,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720195551"/>
+        <c:crossAx val="-636498656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10142,7 +10150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="720195551"/>
+        <c:axId val="-636498656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10193,7 +10201,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720194303"/>
+        <c:crossAx val="-636467648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10275,7 +10283,7 @@
 </file>
 
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10538,7 +10546,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6FE6-4BF4-B32D-8F6799B4E2C1}"/>
             </c:ext>
@@ -10731,7 +10739,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6FE6-4BF4-B32D-8F6799B4E2C1}"/>
             </c:ext>
@@ -10746,11 +10754,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="610356111"/>
-        <c:axId val="601190319"/>
+        <c:axId val="-636468736"/>
+        <c:axId val="-636471456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="610356111"/>
+        <c:axId val="-636468736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10793,7 +10801,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601190319"/>
+        <c:crossAx val="-636471456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10801,7 +10809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601190319"/>
+        <c:axId val="-636471456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10852,7 +10860,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610356111"/>
+        <c:crossAx val="-636468736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10934,7 +10942,7 @@
 </file>
 
 <file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -11201,7 +11209,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7448-4A48-96C9-CE71D2D843CC}"/>
             </c:ext>
@@ -11394,7 +11402,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7448-4A48-96C9-CE71D2D843CC}"/>
             </c:ext>
@@ -11409,11 +11417,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="239542735"/>
-        <c:axId val="803628127"/>
+        <c:axId val="-636483424"/>
+        <c:axId val="-636491040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="239542735"/>
+        <c:axId val="-636483424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11456,7 +11464,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="803628127"/>
+        <c:crossAx val="-636491040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11464,7 +11472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="803628127"/>
+        <c:axId val="-636491040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11515,7 +11523,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239542735"/>
+        <c:crossAx val="-636483424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11597,7 +11605,7 @@
 </file>
 
 <file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -11747,7 +11755,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6D73-4A8F-BE45-8E674677FC1A}"/>
             </c:ext>
@@ -11853,7 +11861,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6D73-4A8F-BE45-8E674677FC1A}"/>
             </c:ext>
@@ -11868,11 +11876,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="609101472"/>
-        <c:axId val="609091072"/>
+        <c:axId val="-636472544"/>
+        <c:axId val="-636476352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="609101472"/>
+        <c:axId val="-636472544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11914,7 +11922,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609091072"/>
+        <c:crossAx val="-636476352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11922,7 +11930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="609091072"/>
+        <c:axId val="-636476352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11973,7 +11981,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609101472"/>
+        <c:crossAx val="-636472544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12020,7 +12028,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -12062,7 +12070,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -12214,7 +12222,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-774B-4036-BF92-CDC10C3ABC79}"/>
             </c:ext>
@@ -12323,7 +12331,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-774B-4036-BF92-CDC10C3ABC79}"/>
             </c:ext>
@@ -12338,11 +12346,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="712212559"/>
-        <c:axId val="712803263"/>
+        <c:axId val="-690001072"/>
+        <c:axId val="-689991824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="712212559"/>
+        <c:axId val="-690001072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12384,7 +12392,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712803263"/>
+        <c:crossAx val="-689991824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12392,7 +12400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712803263"/>
+        <c:axId val="-689991824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12443,7 +12451,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712212559"/>
+        <c:crossAx val="-690001072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12524,7 +12532,7 @@
 </file>
 
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -12674,7 +12682,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-582A-4B40-9C28-774187620728}"/>
             </c:ext>
@@ -12780,7 +12788,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-582A-4B40-9C28-774187620728}"/>
             </c:ext>
@@ -12795,11 +12803,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="619548528"/>
-        <c:axId val="619548944"/>
+        <c:axId val="-636479072"/>
+        <c:axId val="-636499200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="619548528"/>
+        <c:axId val="-636479072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12841,7 +12849,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619548944"/>
+        <c:crossAx val="-636499200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12849,7 +12857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="619548944"/>
+        <c:axId val="-636499200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12900,7 +12908,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619548528"/>
+        <c:crossAx val="-636479072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12947,7 +12955,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -12989,7 +12997,7 @@
 </file>
 
 <file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -13003,7 +13011,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13139,7 +13146,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3AFE-4561-8DD0-5B5F0BB7C691}"/>
             </c:ext>
@@ -13245,7 +13252,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3AFE-4561-8DD0-5B5F0BB7C691}"/>
             </c:ext>
@@ -13260,11 +13267,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="489951424"/>
-        <c:axId val="489933120"/>
+        <c:axId val="-636493216"/>
+        <c:axId val="-636470368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="489951424"/>
+        <c:axId val="-636493216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13306,7 +13313,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489933120"/>
+        <c:crossAx val="-636470368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13314,7 +13321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="489933120"/>
+        <c:axId val="-636470368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13365,7 +13372,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489951424"/>
+        <c:crossAx val="-636493216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13379,7 +13386,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13412,7 +13418,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -13454,7 +13460,7 @@
 </file>
 
 <file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -13717,7 +13723,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D594-425B-9A7A-01327F87D7BB}"/>
             </c:ext>
@@ -13910,7 +13916,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D594-425B-9A7A-01327F87D7BB}"/>
             </c:ext>
@@ -13925,11 +13931,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1745891375"/>
-        <c:axId val="1745876399"/>
+        <c:axId val="-636466560"/>
+        <c:axId val="-636482880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1745891375"/>
+        <c:axId val="-636466560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13972,7 +13978,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1745876399"/>
+        <c:crossAx val="-636482880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13980,7 +13986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1745876399"/>
+        <c:axId val="-636482880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14031,7 +14037,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1745891375"/>
+        <c:crossAx val="-636466560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14078,7 +14084,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -14120,7 +14126,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -14134,6 +14140,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14272,7 +14279,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B97E-4D10-9D3D-01AE3FE8B083}"/>
             </c:ext>
@@ -14381,7 +14388,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B97E-4D10-9D3D-01AE3FE8B083}"/>
             </c:ext>
@@ -14396,11 +14403,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="763750191"/>
-        <c:axId val="763751023"/>
+        <c:axId val="-689979856"/>
+        <c:axId val="-689976592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="763750191"/>
+        <c:axId val="-689979856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14442,7 +14449,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="763751023"/>
+        <c:crossAx val="-689976592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14450,7 +14457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="763751023"/>
+        <c:axId val="-689976592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14501,7 +14508,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="763750191"/>
+        <c:crossAx val="-689979856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14515,6 +14522,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14582,7 +14590,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -14734,7 +14742,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C5A-432D-A898-0FAE79FC2A37}"/>
             </c:ext>
@@ -14843,7 +14851,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9C5A-432D-A898-0FAE79FC2A37}"/>
             </c:ext>
@@ -14858,11 +14866,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="605381791"/>
-        <c:axId val="712211727"/>
+        <c:axId val="-689990736"/>
+        <c:axId val="-689994544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="605381791"/>
+        <c:axId val="-689990736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14904,7 +14912,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712211727"/>
+        <c:crossAx val="-689994544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14912,7 +14920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712211727"/>
+        <c:axId val="-689994544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14963,7 +14971,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605381791"/>
+        <c:crossAx val="-689990736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15044,7 +15052,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -15196,7 +15204,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DDD0-45B0-AB28-3094154AD709}"/>
             </c:ext>
@@ -15305,7 +15313,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DDD0-45B0-AB28-3094154AD709}"/>
             </c:ext>
@@ -15320,11 +15328,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="605382623"/>
-        <c:axId val="712212143"/>
+        <c:axId val="-689986384"/>
+        <c:axId val="-690000528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="605382623"/>
+        <c:axId val="-689986384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15366,7 +15374,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712212143"/>
+        <c:crossAx val="-690000528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15374,7 +15382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712212143"/>
+        <c:axId val="-690000528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15425,7 +15433,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605382623"/>
+        <c:crossAx val="-689986384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15506,7 +15514,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -15658,7 +15666,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A490-40D1-A2D2-6513553CC919}"/>
             </c:ext>
@@ -15767,7 +15775,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A490-40D1-A2D2-6513553CC919}"/>
             </c:ext>
@@ -15782,11 +15790,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="712284655"/>
-        <c:axId val="720072719"/>
+        <c:axId val="-689979312"/>
+        <c:axId val="-689989648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="712284655"/>
+        <c:axId val="-689979312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15828,7 +15836,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720072719"/>
+        <c:crossAx val="-689989648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15836,7 +15844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="720072719"/>
+        <c:axId val="-689989648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15887,7 +15895,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712284655"/>
+        <c:crossAx val="-689979312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15968,7 +15976,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -16120,7 +16128,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B36-4816-BBC0-EBFB3301DDA1}"/>
             </c:ext>
@@ -16229,7 +16237,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0B36-4816-BBC0-EBFB3301DDA1}"/>
             </c:ext>
@@ -16244,11 +16252,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="712283823"/>
-        <c:axId val="712284239"/>
+        <c:axId val="-689985296"/>
+        <c:axId val="-689999984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="712283823"/>
+        <c:axId val="-689985296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16290,7 +16298,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712284239"/>
+        <c:crossAx val="-689999984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16298,7 +16306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712284239"/>
+        <c:axId val="-689999984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16349,7 +16357,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712283823"/>
+        <c:crossAx val="-689985296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16430,7 +16438,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -16580,12 +16588,15 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF01-401F-B558-11AE5E462DEC}"/>
+            </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!#REF!</c15:sqref>
@@ -16595,9 +16606,6 @@
                   </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF01-401F-B558-11AE5E462DEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16791,12 +16799,15 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF01-401F-B558-11AE5E462DEC}"/>
+            </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:filteredCategoryTitle>
                 <c15:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!#REF!</c15:sqref>
@@ -16806,9 +16817,6 @@
                   </c:multiLvlStrRef>
                 </c15:cat>
               </c15:filteredCategoryTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FF01-401F-B558-11AE5E462DEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16821,11 +16829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="764756432"/>
-        <c:axId val="764753520"/>
+        <c:axId val="-689988016"/>
+        <c:axId val="-689989104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="764756432"/>
+        <c:axId val="-689988016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16868,7 +16876,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764753520"/>
+        <c:crossAx val="-689989104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16876,7 +16884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="764753520"/>
+        <c:axId val="-689989104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16927,7 +16935,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764756432"/>
+        <c:crossAx val="-689988016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -34820,7 +34828,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34856,7 +34864,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34892,7 +34900,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34928,7 +34936,7 @@
         <xdr:cNvPr id="9" name="Диаграмма 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34964,7 +34972,7 @@
         <xdr:cNvPr id="10" name="Диаграмма 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35000,7 +35008,7 @@
         <xdr:cNvPr id="11" name="Диаграмма 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35036,7 +35044,7 @@
         <xdr:cNvPr id="12" name="Диаграмма 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35072,7 +35080,7 @@
         <xdr:cNvPr id="13" name="Диаграмма 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35113,7 +35121,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35149,7 +35157,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35185,7 +35193,7 @@
         <xdr:cNvPr id="10" name="Диаграмма 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35221,7 +35229,7 @@
         <xdr:cNvPr id="12" name="Диаграмма 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35257,7 +35265,7 @@
         <xdr:cNvPr id="14" name="Диаграмма 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35293,7 +35301,7 @@
         <xdr:cNvPr id="17" name="Диаграмма 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35331,7 +35339,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35367,7 +35375,7 @@
         <xdr:cNvPr id="20" name="Диаграмма 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35403,7 +35411,7 @@
         <xdr:cNvPr id="21" name="Диаграмма 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35439,7 +35447,7 @@
         <xdr:cNvPr id="22" name="Диаграмма 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35475,7 +35483,7 @@
         <xdr:cNvPr id="25" name="Диаграмма 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35511,7 +35519,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35547,7 +35555,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35583,7 +35591,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35619,7 +35627,7 @@
         <xdr:cNvPr id="24" name="Диаграмма 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35657,7 +35665,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35698,7 +35706,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35736,7 +35744,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35772,7 +35780,7 @@
         <xdr:cNvPr id="21" name="Диаграмма 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35808,7 +35816,7 @@
         <xdr:cNvPr id="25" name="Диаграмма 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35846,7 +35854,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FEBF2B4-EE34-418F-AC35-61F640AC5BC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FEBF2B4-EE34-418F-AC35-61F640AC5BC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35882,7 +35890,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF479A1-B377-4845-9783-F99C37380E5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CF479A1-B377-4845-9783-F99C37380E5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35918,7 +35926,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42A5E96-7001-491F-9E42-D10FD8B58AC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F42A5E96-7001-491F-9E42-D10FD8B58AC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35954,7 +35962,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC544891-CEC1-4592-BBC8-C74AC078FC2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC544891-CEC1-4592-BBC8-C74AC078FC2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -42937,10 +42945,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL173"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AK1" sqref="AK1"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43722,7 +43730,7 @@
         <v>37.925465375358208</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
+        <f>$I3+$C5*N2*(1/(1+EXP(-$A5*(O4-$B5))))</f>
         <v>46.828774078321196</v>
       </c>
       <c r="P7">
@@ -49645,7 +49653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A145" sqref="A145:C145"/>
     </sheetView>
   </sheetViews>
